--- a/data/trans_bre/VUL_DEP-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,64%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,09; 1,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 6,17</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 2,89</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,34; 822,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>509,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 2,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 5,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 2,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,87; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>112,37%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,0</t>
+          <t>-0,28; 4,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,3; 647,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,51; 93,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,99; 552,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>119,3%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,68%</t>
+          <t>85,55%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,34</t>
+          <t>-0,43; 2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,0</t>
+          <t>-0,67; 8,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,58</t>
+          <t>-0,48; 4,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 842,12</t>
+          <t>-21,68; 232,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; 415,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,53; 391,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>168,25%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>174,95%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>137,79%</t>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,66</t>
+          <t>-1,74; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,92</t>
+          <t>2,42; 10,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,07</t>
+          <t>-2,68; 3,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-68,47; —</t>
+          <t>-30,38; 93,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 1800,4</t>
+          <t>20,11; 175,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-42,9; 122,92</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>133,64%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>103,91%</t>
+          <t>184,61%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,41</t>
+          <t>-0,36; 3,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,66</t>
+          <t>-2,92; 10,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,83</t>
+          <t>0,95; 5,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 496,15</t>
+          <t>-16,03; 242,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 83,7</t>
+          <t>-45,2; 341,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 451,14</t>
+          <t>31,01; 570,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>46,59%</t>
+          <t>257,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>69,26%</t>
+          <t>175,82%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,9</t>
+          <t>3,08; 7,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,78</t>
+          <t>-1,11; 8,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,09</t>
+          <t>2,26; 7,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 259,1</t>
+          <t>94,6; 605,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 98,25</t>
+          <t>-12,6; 173,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 208,2</t>
+          <t>51,81; 434,45</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>90,81%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,6</t>
+          <t>1,07; 2,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,02</t>
+          <t>0,67; 4,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,31</t>
+          <t>1,0; 2,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 153,74</t>
+          <t>41,63; 153,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,7; 159,2</t>
+          <t>15,88; 134,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 78,03</t>
+          <t>37,39; 169,16</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>168,93%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>148,8%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>127,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 5,35</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 9,35</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 4,29</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>26,5; 489,45</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>14,5; 304,57</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>8,98; 354,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>168,28%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>75,29%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>231,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 7,59</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 8,64</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 6,84</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 404,59</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>19,14; 161,56</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>86,07; 515,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>108,59%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>66,5%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>87,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 3,3</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,31</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 2,17</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>53,64; 182,03</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>38,82; 101,63</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>47,4; 144,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/VUL_DEP-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-38,06%</t>
+          <t>-67,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,0</t>
+          <t>-3,04; 0,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,17</t>
+          <t>-4,68; 6,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>147,31%</t>
+          <t>280,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,46</t>
+          <t>0,02; 2,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,41</t>
+          <t>0,33; 6,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-88,18; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,87; —</t>
+          <t>-67,76; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>128,71%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,87</t>
+          <t>-1,05; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,6</t>
+          <t>-4,06; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 647,92</t>
+          <t>-54,68; 383,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,51; 93,1</t>
+          <t>-58,97; 94,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>77,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,81</t>
+          <t>-0,07; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,33</t>
+          <t>-0,62; 8,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 232,17</t>
+          <t>-12,79; 278,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 415,54</t>
+          <t>-8,95; 447,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,01</t>
+          <t>-0,59; 3,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,25</t>
+          <t>2,57; 10,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 93,38</t>
+          <t>-15,82; 139,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 175,59</t>
+          <t>23,61; 175,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70,28%</t>
+          <t>116,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,53</t>
+          <t>0,42; 4,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 10,39</t>
+          <t>-3,07; 10,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 242,12</t>
+          <t>4,9; 332,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 341,08</t>
+          <t>-51,49; 358,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>257,67%</t>
+          <t>279,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,4</t>
+          <t>3,48; 8,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,71</t>
+          <t>-0,89; 8,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,6; 605,4</t>
+          <t>108,7; 782,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 173,12</t>
+          <t>-11,05; 152,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>101,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,57</t>
+          <t>1,17; 2,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,81</t>
+          <t>0,74; 4,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,63; 153,33</t>
+          <t>53,53; 171,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,88; 134,87</t>
+          <t>16,25; 145,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_DEP-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,89</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>68,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-67,71%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>24,91%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>68,64%</t>
         </is>
       </c>
     </row>
@@ -642,19 +642,19 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,67; 5,26</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 2,89</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,04; 0,2</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 6,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 2,89</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-82,34; 822,07</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-82,34; 822,07</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>194,96%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78,25%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>280,02%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>509,36%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,63; 5,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 2,15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,02; 2,51</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 6,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 2,15</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-67,4; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-88,18; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-67,76; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-3,76%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>112,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>40,97%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-6,81%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>112,37%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-3,63; 2,57</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 4,64</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,05; 2,0</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 2,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 4,64</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-54,69; 98,75</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-26,99; 552,08</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-54,68; 383,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-58,97; 94,7</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-26,99; 552,08</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,13</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>85,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>77,72%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>73,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>85,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-3,08; 4,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 4,07</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,07; 2,54</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 8,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 4,07</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-29,49; 63,59</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-29,53; 391,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-12,79; 278,14</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 447,71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-29,53; 391,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,38</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>96,43%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>36,78%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>83,53%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,31; 10,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 3,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-0,59; 3,81</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 10,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 3,9</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>32,96; 194,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-42,9; 122,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-15,82; 139,3</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>23,61; 175,95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-42,9; 122,92</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>2,28</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>279,16%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>184,61%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>116,25%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>96,99%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>184,61%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,99; 13,36</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 5,21</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,42; 4,11</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 10,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 5,21</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>106,63; 703,81</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>31,01; 570,49</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>4,9; 332,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-51,49; 358,48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>31,01; 570,49</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>5,47</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>46,53%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>175,82%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>279,78%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>49,53%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>175,82%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,94; 8,34</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 7,59</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>3,48; 8,09</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 8,24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 7,59</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-8,96; 153,37</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51,81; 434,45</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>108,7; 782,6</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 152,81</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>51,81; 434,45</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>1,86</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>60,23%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>90,81%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>101,15%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>60,72%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>90,81%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,84; 4,52</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 2,88</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,17; 2,58</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 4,97</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 2,88</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>29,51; 98,57</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37,39; 169,16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>53,53; 171,37</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>16,25; 145,65</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>37,39; 169,16</t>
         </is>
       </c>
     </row>
